--- a/Altimeter_DualDeploy_KX1/Parts List.xlsx
+++ b/Altimeter_DualDeploy_KX1/Parts List.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepos\RocketGarden\Altimeter_DualDeploy_KX1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="22035" windowHeight="10545"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>Part</t>
   </si>
@@ -43,16 +48,108 @@
   </si>
   <si>
     <t>Supplier Product ID</t>
+  </si>
+  <si>
+    <t>BMP180-0273300244001</t>
+  </si>
+  <si>
+    <t>BMP180</t>
+  </si>
+  <si>
+    <t>futureelectronics.com</t>
+  </si>
+  <si>
+    <t>ATMEGA328P-AU-ND</t>
+  </si>
+  <si>
+    <t>Atmega328</t>
+  </si>
+  <si>
+    <t>digikey.com</t>
+  </si>
+  <si>
+    <t>576-1259-1-ND</t>
+  </si>
+  <si>
+    <t>MIC5205-3.3YM5 TR</t>
+  </si>
+  <si>
+    <t>Vreg</t>
+  </si>
+  <si>
+    <t>DMG4822SSD-13DICT-ND</t>
+  </si>
+  <si>
+    <t>DMG4822SSD-13</t>
+  </si>
+  <si>
+    <t>Dual n mosfet</t>
+  </si>
+  <si>
+    <t>282834-2</t>
+  </si>
+  <si>
+    <t>A98333-ND</t>
+  </si>
+  <si>
+    <t>terminal 2 pos</t>
+  </si>
+  <si>
+    <t>490-5992-1-ND</t>
+  </si>
+  <si>
+    <t>resonator</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>2.2uF</t>
+  </si>
+  <si>
+    <t>470pF</t>
+  </si>
+  <si>
+    <t>Res</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>4.7K</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>zener</t>
+  </si>
+  <si>
+    <t>MMSZ5226BS-FDICT-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -75,13 +172,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -89,6 +189,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -137,7 +240,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -172,7 +275,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -381,17 +484,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -414,6 +519,119 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
@@ -434,7 +652,98 @@
         <v>5</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19">
+        <v>300</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" display="http://www.digikey.com/product-detail/en/282834-2/A98333-ND/1150135"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
